--- a/Lab 05/Ejercicios.xlsx
+++ b/Lab 05/Ejercicios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvggt-my.sharepoint.com/personal/men19673_uvg_edu_gt/Documents/University/Semesters/Fall 2020/Electronica Digital/Electronica-Digital/Lab 05/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="323" documentId="8_{5D5F3C20-B70A-4578-8D34-0B1769143FC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8683888D-AE39-460F-8AC1-F07121403001}"/>
+  <xr:revisionPtr revIDLastSave="325" documentId="8_{5D5F3C20-B70A-4578-8D34-0B1769143FC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0C7C21E0-6699-48C1-993C-AD4CB5EF02BB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{95FE0F8F-A479-4229-A767-59F035F1BEA9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>S</t>
   </si>
@@ -306,6 +306,9 @@
   </si>
   <si>
     <t>estabilizarse</t>
+  </si>
+  <si>
+    <t>Diego A. Méndez</t>
   </si>
 </sst>
 </file>
@@ -392,30 +395,30 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -780,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25114DC5-6B71-4AE8-A5FC-CAD949F55AC1}">
-  <dimension ref="A2:H124"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A141" sqref="A141"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -792,6 +795,14 @@
     <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1">
+        <v>19673</v>
+      </c>
+    </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
@@ -801,12 +812,12 @@
       <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
@@ -998,10 +1009,10 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="6"/>
+      <c r="C14" s="13"/>
       <c r="E14" t="s">
         <v>21</v>
       </c>
@@ -1068,12 +1079,12 @@
       <c r="B20" s="1"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="5" t="s">
@@ -1256,10 +1267,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="6"/>
+      <c r="C37" s="13"/>
       <c r="E37" t="s">
         <v>21</v>
       </c>
@@ -1328,118 +1339,118 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8" t="s">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8" t="s">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8" t="s">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
@@ -1447,18 +1458,18 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="12" t="s">
+      <c r="A61" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C61" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B62" s="2">
@@ -1471,7 +1482,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="12" t="s">
+      <c r="A63" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B63" s="2">
@@ -1484,7 +1495,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="12" t="s">
+      <c r="A64" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B64" s="2">
@@ -1497,7 +1508,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="12" t="s">
+      <c r="A65" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B65" s="2">
@@ -1510,7 +1521,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="12" t="s">
+      <c r="A66" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B66" s="2">
@@ -1523,7 +1534,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="12" t="s">
+      <c r="A67" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B67" s="2">
@@ -1536,7 +1547,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="12" t="s">
+      <c r="A68" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B68" s="2">
@@ -1549,7 +1560,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="12" t="s">
+      <c r="A69" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B69" s="2">
@@ -1562,37 +1573,37 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="14" t="s">
+      <c r="A70" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="14" t="s">
+      <c r="A71" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="10"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="12" t="s">
+      <c r="A75" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B75" s="12" t="s">
+      <c r="B75" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="C75" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="12" t="s">
+      <c r="A76" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B76" s="2">
@@ -1605,7 +1616,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="12" t="s">
+      <c r="A77" s="8" t="s">
         <v>48</v>
       </c>
       <c r="B77" s="2">
@@ -1618,7 +1629,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="12" t="s">
+      <c r="A78" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B78" s="2">
@@ -1631,7 +1642,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="12" t="s">
+      <c r="A79" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B79" s="2">
@@ -1644,7 +1655,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="12" t="s">
+      <c r="A80" s="8" t="s">
         <v>47</v>
       </c>
       <c r="B80" s="2">
@@ -1657,7 +1668,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="12" t="s">
+      <c r="A81" s="8" t="s">
         <v>49</v>
       </c>
       <c r="B81" s="2">
@@ -1670,7 +1681,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="12" t="s">
+      <c r="A82" s="8" t="s">
         <v>50</v>
       </c>
       <c r="B82" s="2">
@@ -1683,7 +1694,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="12" t="s">
+      <c r="A83" s="8" t="s">
         <v>51</v>
       </c>
       <c r="B83" s="2">
@@ -1696,32 +1707,32 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="11" t="s">
+      <c r="A84" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B84" s="11"/>
-      <c r="C84" s="11"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="11" t="s">
+      <c r="A85" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B85" s="11"/>
-      <c r="C85" s="11"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="12" t="s">
+      <c r="A93" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B93" s="12" t="s">
+      <c r="B93" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C93" s="12" t="s">
+      <c r="C93" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="12" t="s">
+      <c r="A94" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B94" s="2">
@@ -1734,7 +1745,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="12" t="s">
+      <c r="A95" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B95" s="2">
@@ -1747,7 +1758,7 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="12" t="s">
+      <c r="A96" s="8" t="s">
         <v>58</v>
       </c>
       <c r="B96" s="2">
@@ -1760,7 +1771,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="12" t="s">
+      <c r="A97" s="8" t="s">
         <v>59</v>
       </c>
       <c r="B97" s="2">
@@ -1773,7 +1784,7 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="12" t="s">
+      <c r="A98" s="8" t="s">
         <v>60</v>
       </c>
       <c r="B98" s="2">
@@ -1786,7 +1797,7 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="12" t="s">
+      <c r="A99" s="8" t="s">
         <v>61</v>
       </c>
       <c r="B99" s="2">
@@ -1799,7 +1810,7 @@
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="12" t="s">
+      <c r="A100" s="8" t="s">
         <v>62</v>
       </c>
       <c r="B100" s="2">
@@ -1812,7 +1823,7 @@
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="12" t="s">
+      <c r="A101" s="8" t="s">
         <v>63</v>
       </c>
       <c r="B101" s="2">
@@ -1825,7 +1836,7 @@
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="12" t="s">
+      <c r="A102" s="8" t="s">
         <v>64</v>
       </c>
       <c r="B102" s="2">
@@ -1838,32 +1849,32 @@
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="13" t="s">
+      <c r="A103" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B103" s="13"/>
-      <c r="C103" s="13"/>
+      <c r="B103" s="9"/>
+      <c r="C103" s="9"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="13" t="s">
+      <c r="A104" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B104" s="13"/>
-      <c r="C104" s="13"/>
+      <c r="B104" s="9"/>
+      <c r="C104" s="9"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="12" t="s">
+      <c r="A107" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B107" s="12" t="s">
+      <c r="B107" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C107" s="12" t="s">
+      <c r="C107" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="12" t="s">
+      <c r="A108" s="8" t="s">
         <v>67</v>
       </c>
       <c r="B108" s="2">
@@ -1874,7 +1885,7 @@
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="12" t="s">
+      <c r="A109" s="8" t="s">
         <v>68</v>
       </c>
       <c r="B109" s="2">
@@ -1887,7 +1898,7 @@
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="12" t="s">
+      <c r="A110" s="8" t="s">
         <v>69</v>
       </c>
       <c r="B110" s="2">
@@ -1900,7 +1911,7 @@
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="12" t="s">
+      <c r="A111" s="8" t="s">
         <v>70</v>
       </c>
       <c r="B111" s="2">
@@ -1913,7 +1924,7 @@
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="12" t="s">
+      <c r="A112" s="8" t="s">
         <v>71</v>
       </c>
       <c r="B112" s="2">
@@ -1926,7 +1937,7 @@
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="12" t="s">
+      <c r="A113" s="8" t="s">
         <v>72</v>
       </c>
       <c r="B113" s="2">
@@ -1939,7 +1950,7 @@
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="12" t="s">
+      <c r="A114" s="8" t="s">
         <v>73</v>
       </c>
       <c r="B114" s="2">
@@ -1952,7 +1963,7 @@
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="12" t="s">
+      <c r="A115" s="8" t="s">
         <v>74</v>
       </c>
       <c r="B115" s="2">
@@ -1965,7 +1976,7 @@
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="12" t="s">
+      <c r="A116" s="8" t="s">
         <v>75</v>
       </c>
       <c r="B116" s="2">
@@ -1978,7 +1989,7 @@
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="12" t="s">
+      <c r="A117" s="8" t="s">
         <v>76</v>
       </c>
       <c r="B117" s="2">
@@ -1990,7 +2001,7 @@
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="12" t="s">
+      <c r="A118" s="8" t="s">
         <v>77</v>
       </c>
       <c r="B118" s="2">
@@ -2003,7 +2014,7 @@
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="12" t="s">
+      <c r="A119" s="8" t="s">
         <v>78</v>
       </c>
       <c r="B119" s="2">
@@ -2016,7 +2027,7 @@
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="12" t="s">
+      <c r="A120" s="8" t="s">
         <v>79</v>
       </c>
       <c r="B120" s="2">
@@ -2029,7 +2040,7 @@
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="12" t="s">
+      <c r="A121" s="8" t="s">
         <v>80</v>
       </c>
       <c r="B121" s="2">
@@ -2042,7 +2053,7 @@
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="12" t="s">
+      <c r="A122" s="8" t="s">
         <v>81</v>
       </c>
       <c r="B122" s="2">
@@ -2055,21 +2066,25 @@
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" s="13" t="s">
+      <c r="A123" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B123" s="13"/>
-      <c r="C123" s="13"/>
+      <c r="B123" s="9"/>
+      <c r="C123" s="9"/>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" s="11" t="s">
+      <c r="A124" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B124" s="11"/>
-      <c r="C124" s="11"/>
+      <c r="B124" s="10"/>
+      <c r="C124" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E24:H24"/>
     <mergeCell ref="A104:C104"/>
     <mergeCell ref="A123:C123"/>
     <mergeCell ref="A124:C124"/>
@@ -2082,10 +2097,6 @@
     <mergeCell ref="A84:C84"/>
     <mergeCell ref="A85:C85"/>
     <mergeCell ref="A103:C103"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E24:H24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
